--- a/pred_ohlcv/54_21/2019-10-29 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>129189.5799703</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>134030.34424336</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>134030.34424336</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>133310.72894336</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>146364.01445817</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -808,7 +808,7 @@
         <v>169825.21506126</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -912,7 +912,7 @@
         <v>159117.51237649</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>150155.88057649</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>148872.1915764899</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>168138.08113796</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>170685.37883796</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>194532.6206379599</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>206271.3183655899</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>199987.85014921</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>191841.52404921</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>198838.3363492099</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>193080.6950230199</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>208690.3005282999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>225235.7606153599</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>222890.7273153599</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>204386.8400821499</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>210761.0868855199</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>222736.4884695599</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>216584.7915123199</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>216823.9593123199</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>214562.0701123199</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>209990.9823123199</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>204947.1375123199</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>227610.0412123199</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>227610.0412123199</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>220252.3216123199</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>215428.0365123199</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>217301.7257532399</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>223705.8131399599</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>222398.1686399599</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>213275.8690399599</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>213275.8690399599</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>215773.1661399599</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>213688.4659276599</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>210448.5810802199</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>217254.7986802199</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>217944.1434802199</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>216618.1414183099</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>212414.8460183099</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>211838.8160183099</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>246536.0474456999</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>263517.2841111801</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>263480.60981118</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>265844.5966111801</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>265918.2831111801</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>163124.3824658902</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>162287.4737658902</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>170493.8315658902</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>161038.8761658902</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>157656.9490910102</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>155497.8113910102</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>157351.5759910102</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>155843.0957910102</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>155843.0957910102</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>155843.0957910102</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>149440.5411910102</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>149670.9903736802</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>149670.9903736802</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>164395.2517701302</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>164703.5832701302</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>165015.8141701302</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>164624.8498701302</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>164556.9461701302</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>164575.4373701302</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>164658.2350701302</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>164703.6005701302</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>163101.4192701303</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>164586.8004701303</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>163554.5993701303</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>163675.4240701302</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>163675.4240701302</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>164382.2790701303</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>165798.2962701303</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>165798.3962701303</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>167268.6046701303</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>167268.6046701303</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>167112.5366701303</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>167113.5366701303</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>167572.8092701303</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>168818.5082701303</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>169826.2788701302</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>170417.9251471203</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>164242.5294471203</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>141282.3041471203</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>140079.4884471203</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>137617.5730471203</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>138946.2585471203</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>136092.0845471203</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>136167.0227471203</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>138029.6440471203</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>137167.3629471203</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>138240.0136471203</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>138216.2231471203</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>138239.9592471203</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>138216.9738471203</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>138216.9738471203</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>138100.1230471203</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>136992.1152471203</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>137536.9928471203</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>137536.9928471203</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>139551.6173471203</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>139618.8659471203</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>138060.7013471203</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>137983.9911471203</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>137953.1620471203</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>137681.0378471203</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>137681.0378471203</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>137679.5715471203</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>135297.4935471203</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>135313.4935471203</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>134995.3583471203</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>134929.8164471203</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>135028.6984471203</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>135270.5920471203</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>134691.4602471203</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>134914.3139471203</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>134914.4139471203</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>134817.5701471203</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>135234.2009471203</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>141836.6763471203</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>139898.6750471203</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>140927.1505471203</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>141842.0938471204</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>144273.4290471204</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>143829.1158471204</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>143906.0672471203</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>143906.0672471203</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>145461.0940471203</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>145912.2190471203</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>145869.6024471203</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>146029.6024471203</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>145931.8024471203</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>147548.5289471203</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>146582.3576471203</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>147919.4919471203</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>147481.6370471203</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>147756.2034471204</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>147497.2240471203</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>147497.2240471203</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>147123.4994471204</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>147164.6175471203</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>146966.5215471204</v>
       </c>
       <c r="H926">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>147123.0339471204</v>
       </c>
       <c r="H927">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>147123.0339471204</v>
       </c>
       <c r="H928">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>146172.1569471204</v>
       </c>
       <c r="H929">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>146472.1569471204</v>
       </c>
       <c r="H930">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>146330.3570471203</v>
       </c>
       <c r="H931">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>146330.3570471203</v>
       </c>
       <c r="H932">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>147858.7657471203</v>
       </c>
       <c r="H933">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>148068.9557471203</v>
       </c>
       <c r="H934">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>148068.9557471203</v>
       </c>
       <c r="H935">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>148993.9936471203</v>
       </c>
       <c r="H936">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>149325.0955471203</v>
       </c>
       <c r="H937">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>150172.6135471204</v>
       </c>
       <c r="H938">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>129558.8339471203</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>132283.7627471203</v>
       </c>
       <c r="H1003">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>131991.0689471203</v>
       </c>
       <c r="H1004">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>132192.2993471203</v>
       </c>
       <c r="H1005">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>133192.1166471203</v>
       </c>
       <c r="H1006">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>131519.7758388903</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>131206.2564384503</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>131445.1871384503</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>128212.6253384503</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>125250.2305384503</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>125582.7196384503</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>126211.7318384503</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>125279.4683384503</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>125245.6518384503</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>127842.6620384503</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>128998.4524384503</v>
       </c>
       <c r="H1071">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>131056.5927624703</v>
       </c>
       <c r="H1072">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>128549.7084624703</v>
       </c>
       <c r="H1073">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>129481.9528624703</v>
       </c>
       <c r="H1074">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1075">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1076">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1077">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>123543.9048624703</v>
       </c>
       <c r="H1078">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>126521.0040624703</v>
       </c>
       <c r="H1079">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>126508.2042624703</v>
       </c>
       <c r="H1080">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>127133.5144624703</v>
       </c>
       <c r="H1081">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>126385.3052624703</v>
       </c>
       <c r="H1082">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>126385.3052624703</v>
       </c>
       <c r="H1083">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>127340.7163624703</v>
       </c>
       <c r="H1084">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>127115.7997624703</v>
       </c>
       <c r="H1085">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1086" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-29 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-29 QTUM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>129189.5799703</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>134030.34424336</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>134030.34424336</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>133310.72894336</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>146364.01445817</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -912,7 +912,7 @@
         <v>159117.51237649</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -964,7 +964,7 @@
         <v>150155.88057649</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>168138.08113796</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>170685.37883796</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>194532.6206379599</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>206271.3183655899</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>199987.85014921</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>191841.52404921</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>198838.3363492099</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>193080.6950230199</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>208690.3005282999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>204386.8400821499</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>210761.0868855199</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>222736.4884695599</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>216584.7915123199</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>216823.9593123199</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>214562.0701123199</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>209990.9823123199</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>204947.1375123199</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>227610.0412123199</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>227610.0412123199</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>215428.0365123199</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>223705.8131399599</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>222398.1686399599</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>213275.8690399599</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>216618.1414183099</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>212414.8460183099</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>211838.8160183099</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>246536.0474456999</v>
       </c>
       <c r="H420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>263517.2841111801</v>
       </c>
       <c r="H494">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>263480.60981118</v>
       </c>
       <c r="H495">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>265844.5966111801</v>
       </c>
       <c r="H496">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>265918.2831111801</v>
       </c>
       <c r="H497">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>163124.3824658902</v>
       </c>
       <c r="H777">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>162287.4737658902</v>
       </c>
       <c r="H780">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>170493.8315658902</v>
       </c>
       <c r="H781">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>161038.8761658902</v>
       </c>
       <c r="H782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>157656.9490910102</v>
       </c>
       <c r="H784">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>155497.8113910102</v>
       </c>
       <c r="H785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>157351.5759910102</v>
       </c>
       <c r="H786">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>155843.0957910102</v>
       </c>
       <c r="H787">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>155843.0957910102</v>
       </c>
       <c r="H788">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>155843.0957910102</v>
       </c>
       <c r="H789">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>149440.5411910102</v>
       </c>
       <c r="H790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>149670.9903736802</v>
       </c>
       <c r="H791">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>149670.9903736802</v>
       </c>
       <c r="H792">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>149579.3587736802</v>
       </c>
       <c r="H793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>149579.3587736802</v>
       </c>
       <c r="H794">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>148979.2065736802</v>
       </c>
       <c r="H795">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>148979.2065736802</v>
       </c>
       <c r="H796">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>164586.8004701303</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>163065.0645701303</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>167091.8060701303</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>167572.8092701303</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>168818.5082701303</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>169826.2788701302</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>170417.9251471203</v>
       </c>
       <c r="H843">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>164242.5294471203</v>
       </c>
       <c r="H844">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H862">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>141376.2357471203</v>
       </c>
       <c r="H863">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>141282.3041471203</v>
       </c>
       <c r="H864">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>140079.4884471203</v>
       </c>
       <c r="H865">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>137617.5730471203</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>138946.2585471203</v>
       </c>
       <c r="H867">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>136092.0845471203</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>136167.0227471203</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>138029.6440471203</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>137167.3629471203</v>
       </c>
       <c r="H871">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>138240.0136471203</v>
       </c>
       <c r="H872">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>138216.2231471203</v>
       </c>
       <c r="H873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>138239.9592471203</v>
       </c>
       <c r="H874">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>138216.9738471203</v>
       </c>
       <c r="H875">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>138216.9738471203</v>
       </c>
       <c r="H876">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>138100.1230471203</v>
       </c>
       <c r="H877">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>136992.1152471203</v>
       </c>
       <c r="H878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>137536.9928471203</v>
       </c>
       <c r="H879">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>137536.9928471203</v>
       </c>
       <c r="H880">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>139551.6173471203</v>
       </c>
       <c r="H881">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>139618.8659471203</v>
       </c>
       <c r="H882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>138060.7013471203</v>
       </c>
       <c r="H883">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>137983.9911471203</v>
       </c>
       <c r="H884">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>137953.1620471203</v>
       </c>
       <c r="H885">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>137681.0378471203</v>
       </c>
       <c r="H886">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>137681.0378471203</v>
       </c>
       <c r="H887">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>137679.5715471203</v>
       </c>
       <c r="H888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>135297.4935471203</v>
       </c>
       <c r="H889">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>135313.4935471203</v>
       </c>
       <c r="H890">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>134995.3583471203</v>
       </c>
       <c r="H891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>134929.8164471203</v>
       </c>
       <c r="H892">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>135028.6984471203</v>
       </c>
       <c r="H893">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>135270.5920471203</v>
       </c>
       <c r="H894">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>134691.4602471203</v>
       </c>
       <c r="H895">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>134914.3139471203</v>
       </c>
       <c r="H896">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>134914.4139471203</v>
       </c>
       <c r="H897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>134817.5701471203</v>
       </c>
       <c r="H898">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>135234.2009471203</v>
       </c>
       <c r="H899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>141836.6763471203</v>
       </c>
       <c r="H900">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>139898.6750471203</v>
       </c>
       <c r="H901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>140927.1505471203</v>
       </c>
       <c r="H902">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>141842.0938471204</v>
       </c>
       <c r="H903">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>144273.4290471204</v>
       </c>
       <c r="H904">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>143829.1158471204</v>
       </c>
       <c r="H905">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>143906.0672471203</v>
       </c>
       <c r="H906">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>143906.0672471203</v>
       </c>
       <c r="H907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>145461.0940471203</v>
       </c>
       <c r="H908">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>145912.2190471203</v>
       </c>
       <c r="H909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>145869.6024471203</v>
       </c>
       <c r="H910">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>146029.6024471203</v>
       </c>
       <c r="H911">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>145931.8024471203</v>
       </c>
       <c r="H912">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>147548.5289471203</v>
       </c>
       <c r="H913">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>146582.3576471203</v>
       </c>
       <c r="H918">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>147919.4919471203</v>
       </c>
       <c r="H919">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>147481.6370471203</v>
       </c>
       <c r="H920">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>147756.2034471204</v>
       </c>
       <c r="H921">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>147497.2240471203</v>
       </c>
       <c r="H922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>147497.2240471203</v>
       </c>
       <c r="H923">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>147123.4994471204</v>
       </c>
       <c r="H924">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>147164.6175471203</v>
       </c>
       <c r="H925">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926" spans="1:8">
@@ -24468,7 +24468,7 @@
         <v>146966.5215471204</v>
       </c>
       <c r="H926">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="927" spans="1:8">
@@ -24494,7 +24494,7 @@
         <v>147123.0339471204</v>
       </c>
       <c r="H927">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928" spans="1:8">
@@ -24520,7 +24520,7 @@
         <v>147123.0339471204</v>
       </c>
       <c r="H928">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="929" spans="1:8">
@@ -24546,7 +24546,7 @@
         <v>146172.1569471204</v>
       </c>
       <c r="H929">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="930" spans="1:8">
@@ -24572,7 +24572,7 @@
         <v>146472.1569471204</v>
       </c>
       <c r="H930">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="931" spans="1:8">
@@ -24598,7 +24598,7 @@
         <v>146330.3570471203</v>
       </c>
       <c r="H931">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="932" spans="1:8">
@@ -24624,7 +24624,7 @@
         <v>146330.3570471203</v>
       </c>
       <c r="H932">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="933" spans="1:8">
@@ -24650,7 +24650,7 @@
         <v>147858.7657471203</v>
       </c>
       <c r="H933">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="934" spans="1:8">
@@ -24676,7 +24676,7 @@
         <v>148068.9557471203</v>
       </c>
       <c r="H934">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="935" spans="1:8">
@@ -24702,7 +24702,7 @@
         <v>148068.9557471203</v>
       </c>
       <c r="H935">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="936" spans="1:8">
@@ -24728,7 +24728,7 @@
         <v>148993.9936471203</v>
       </c>
       <c r="H936">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="937" spans="1:8">
@@ -24754,7 +24754,7 @@
         <v>149325.0955471203</v>
       </c>
       <c r="H937">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938" spans="1:8">
@@ -24780,7 +24780,7 @@
         <v>150172.6135471204</v>
       </c>
       <c r="H938">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="939" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>129558.8339471203</v>
       </c>
       <c r="H966">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -26470,7 +26470,7 @@
         <v>132283.7627471203</v>
       </c>
       <c r="H1003">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1004" spans="1:8">
@@ -26496,7 +26496,7 @@
         <v>131991.0689471203</v>
       </c>
       <c r="H1004">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1005" spans="1:8">
@@ -26522,7 +26522,7 @@
         <v>132192.2993471203</v>
       </c>
       <c r="H1005">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1006" spans="1:8">
@@ -26548,7 +26548,7 @@
         <v>133192.1166471203</v>
       </c>
       <c r="H1006">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1007" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>131519.7758388903</v>
       </c>
       <c r="H1061">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>131206.2564384503</v>
       </c>
       <c r="H1062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>131445.1871384503</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>128212.6253384503</v>
       </c>
       <c r="H1064">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>125250.2305384503</v>
       </c>
       <c r="H1065">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>125582.7196384503</v>
       </c>
       <c r="H1066">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>126211.7318384503</v>
       </c>
       <c r="H1067">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>125279.4683384503</v>
       </c>
       <c r="H1068">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>125245.6518384503</v>
       </c>
       <c r="H1069">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>127842.6620384503</v>
       </c>
       <c r="H1070">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:8">
@@ -28238,7 +28238,7 @@
         <v>128998.4524384503</v>
       </c>
       <c r="H1071">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1072" spans="1:8">
@@ -28264,7 +28264,7 @@
         <v>131056.5927624703</v>
       </c>
       <c r="H1072">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073" spans="1:8">
@@ -28290,7 +28290,7 @@
         <v>128549.7084624703</v>
       </c>
       <c r="H1073">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1074" spans="1:8">
@@ -28316,7 +28316,7 @@
         <v>129481.9528624703</v>
       </c>
       <c r="H1074">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1075" spans="1:8">
@@ -28342,7 +28342,7 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1075">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1076" spans="1:8">
@@ -28368,7 +28368,7 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1076">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1077" spans="1:8">
@@ -28394,7 +28394,7 @@
         <v>129430.9958624703</v>
       </c>
       <c r="H1077">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1078" spans="1:8">
@@ -28420,7 +28420,7 @@
         <v>123543.9048624703</v>
       </c>
       <c r="H1078">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1079" spans="1:8">
@@ -28446,7 +28446,7 @@
         <v>126521.0040624703</v>
       </c>
       <c r="H1079">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1080" spans="1:8">
@@ -28472,7 +28472,7 @@
         <v>126508.2042624703</v>
       </c>
       <c r="H1080">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1081" spans="1:8">
@@ -28498,7 +28498,7 @@
         <v>127133.5144624703</v>
       </c>
       <c r="H1081">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1082" spans="1:8">
@@ -28524,7 +28524,7 @@
         <v>126385.3052624703</v>
       </c>
       <c r="H1082">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1083" spans="1:8">
@@ -28550,7 +28550,7 @@
         <v>126385.3052624703</v>
       </c>
       <c r="H1083">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1084" spans="1:8">
@@ -28576,7 +28576,7 @@
         <v>127340.7163624703</v>
       </c>
       <c r="H1084">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1085" spans="1:8">
@@ -28602,7 +28602,7 @@
         <v>127115.7997624703</v>
       </c>
       <c r="H1085">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1086" spans="1:8">
